--- a/Data_frame/balancos_definitivos/NINJ3.xlsx
+++ b/Data_frame/balancos_definitivos/NINJ3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,21 @@
           <t>30/09/2023</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -542,6 +557,15 @@
       <c r="M2" t="n">
         <v>304222.016</v>
       </c>
+      <c r="N2" t="n">
+        <v>297688.992</v>
+      </c>
+      <c r="O2" t="n">
+        <v>301051.008</v>
+      </c>
+      <c r="P2" t="n">
+        <v>307979.008</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -585,6 +609,15 @@
       <c r="M3" t="n">
         <v>285936.992</v>
       </c>
+      <c r="N3" t="n">
+        <v>287040.992</v>
+      </c>
+      <c r="O3" t="n">
+        <v>291636</v>
+      </c>
+      <c r="P3" t="n">
+        <v>299833.984</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -628,6 +661,15 @@
       <c r="M4" t="n">
         <v>144011.008</v>
       </c>
+      <c r="N4" t="n">
+        <v>24285</v>
+      </c>
+      <c r="O4" t="n">
+        <v>20818</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5876</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -671,6 +713,15 @@
       <c r="M5" t="n">
         <v>133641</v>
       </c>
+      <c r="N5" t="n">
+        <v>251712</v>
+      </c>
+      <c r="O5" t="n">
+        <v>256988</v>
+      </c>
+      <c r="P5" t="n">
+        <v>278312.992</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -714,6 +765,15 @@
       <c r="M6" t="n">
         <v>4038</v>
       </c>
+      <c r="N6" t="n">
+        <v>4104</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5065</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4464</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -757,6 +817,15 @@
       <c r="M7" t="n">
         <v>0</v>
       </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -800,6 +869,15 @@
       <c r="M8" t="n">
         <v>0</v>
       </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -843,6 +921,15 @@
       <c r="M9" t="n">
         <v>0</v>
       </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -886,6 +973,15 @@
       <c r="M10" t="n">
         <v>0</v>
       </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -929,6 +1025,15 @@
       <c r="M11" t="n">
         <v>4247</v>
       </c>
+      <c r="N11" t="n">
+        <v>6940</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8765</v>
+      </c>
+      <c r="P11" t="n">
+        <v>11181</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -972,6 +1077,15 @@
       <c r="M12" t="n">
         <v>0</v>
       </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1015,6 +1129,15 @@
       <c r="M13" t="n">
         <v>0</v>
       </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1058,6 +1181,15 @@
       <c r="M14" t="n">
         <v>0</v>
       </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1101,6 +1233,15 @@
       <c r="M15" t="n">
         <v>0</v>
       </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1144,6 +1285,15 @@
       <c r="M16" t="n">
         <v>0</v>
       </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1187,6 +1337,15 @@
       <c r="M17" t="n">
         <v>0</v>
       </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1230,6 +1389,15 @@
       <c r="M18" t="n">
         <v>0</v>
       </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1273,6 +1441,15 @@
       <c r="M19" t="n">
         <v>0</v>
       </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1316,6 +1493,15 @@
       <c r="M20" t="n">
         <v>0</v>
       </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1359,6 +1545,15 @@
       <c r="M21" t="n">
         <v>0</v>
       </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1402,6 +1597,15 @@
       <c r="M22" t="n">
         <v>0</v>
       </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1445,6 +1649,15 @@
       <c r="M23" t="n">
         <v>3090</v>
       </c>
+      <c r="N23" t="n">
+        <v>2825</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2604</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2347</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1488,6 +1701,15 @@
       <c r="M24" t="n">
         <v>15195</v>
       </c>
+      <c r="N24" t="n">
+        <v>7823</v>
+      </c>
+      <c r="O24" t="n">
+        <v>6811</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5798</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1531,6 +1753,15 @@
       <c r="M25" t="n">
         <v>0</v>
       </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1574,6 +1805,15 @@
       <c r="M26" t="n">
         <v>304222.016</v>
       </c>
+      <c r="N26" t="n">
+        <v>297688.992</v>
+      </c>
+      <c r="O26" t="n">
+        <v>301051.008</v>
+      </c>
+      <c r="P26" t="n">
+        <v>307979.008</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1617,6 +1857,15 @@
       <c r="M27" t="n">
         <v>17798</v>
       </c>
+      <c r="N27" t="n">
+        <v>16213</v>
+      </c>
+      <c r="O27" t="n">
+        <v>16680</v>
+      </c>
+      <c r="P27" t="n">
+        <v>17272</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1660,6 +1909,15 @@
       <c r="M28" t="n">
         <v>0</v>
       </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1703,6 +1961,15 @@
       <c r="M29" t="n">
         <v>5928</v>
       </c>
+      <c r="N29" t="n">
+        <v>5700</v>
+      </c>
+      <c r="O29" t="n">
+        <v>6710</v>
+      </c>
+      <c r="P29" t="n">
+        <v>6264</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1746,6 +2013,15 @@
       <c r="M30" t="n">
         <v>0</v>
       </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1789,6 +2065,15 @@
       <c r="M31" t="n">
         <v>0</v>
       </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1832,6 +2117,15 @@
       <c r="M32" t="n">
         <v>0</v>
       </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1875,6 +2169,15 @@
       <c r="M33" t="n">
         <v>0</v>
       </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1918,6 +2221,15 @@
       <c r="M34" t="n">
         <v>11870</v>
       </c>
+      <c r="N34" t="n">
+        <v>10513</v>
+      </c>
+      <c r="O34" t="n">
+        <v>9970</v>
+      </c>
+      <c r="P34" t="n">
+        <v>11008</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1961,6 +2273,15 @@
       <c r="M35" t="n">
         <v>0</v>
       </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2004,6 +2325,15 @@
       <c r="M36" t="n">
         <v>0</v>
       </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2047,6 +2377,15 @@
       <c r="M37" t="n">
         <v>1229</v>
       </c>
+      <c r="N37" t="n">
+        <v>1141</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1048</v>
+      </c>
+      <c r="P37" t="n">
+        <v>878</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2090,6 +2429,15 @@
       <c r="M38" t="n">
         <v>1131</v>
       </c>
+      <c r="N38" t="n">
+        <v>1042</v>
+      </c>
+      <c r="O38" t="n">
+        <v>949</v>
+      </c>
+      <c r="P38" t="n">
+        <v>832</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2133,6 +2481,15 @@
       <c r="M39" t="n">
         <v>0</v>
       </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2176,6 +2533,15 @@
       <c r="M40" t="n">
         <v>0</v>
       </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2219,6 +2585,15 @@
       <c r="M41" t="n">
         <v>0</v>
       </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2262,6 +2637,15 @@
       <c r="M42" t="n">
         <v>0</v>
       </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2305,6 +2689,15 @@
       <c r="M43" t="n">
         <v>98</v>
       </c>
+      <c r="N43" t="n">
+        <v>99</v>
+      </c>
+      <c r="O43" t="n">
+        <v>99</v>
+      </c>
+      <c r="P43" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2348,6 +2741,15 @@
       <c r="M44" t="n">
         <v>0</v>
       </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2391,6 +2793,15 @@
       <c r="M45" t="n">
         <v>0</v>
       </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2434,6 +2845,15 @@
       <c r="M46" t="n">
         <v>0</v>
       </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2477,6 +2897,15 @@
       <c r="M47" t="n">
         <v>285195.008</v>
       </c>
+      <c r="N47" t="n">
+        <v>280335.008</v>
+      </c>
+      <c r="O47" t="n">
+        <v>283323.008</v>
+      </c>
+      <c r="P47" t="n">
+        <v>289828.992</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2520,6 +2949,15 @@
       <c r="M48" t="n">
         <v>267386</v>
       </c>
+      <c r="N48" t="n">
+        <v>267386</v>
+      </c>
+      <c r="O48" t="n">
+        <v>267386</v>
+      </c>
+      <c r="P48" t="n">
+        <v>267387.008</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2563,6 +3001,15 @@
       <c r="M49" t="n">
         <v>13565</v>
       </c>
+      <c r="N49" t="n">
+        <v>8341</v>
+      </c>
+      <c r="O49" t="n">
+        <v>8423</v>
+      </c>
+      <c r="P49" t="n">
+        <v>8377</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2606,6 +3053,15 @@
       <c r="M50" t="n">
         <v>0</v>
       </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2649,6 +3105,15 @@
       <c r="M51" t="n">
         <v>4244</v>
       </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2692,6 +3157,15 @@
       <c r="M52" t="n">
         <v>0</v>
       </c>
+      <c r="N52" t="n">
+        <v>4608</v>
+      </c>
+      <c r="O52" t="n">
+        <v>7514</v>
+      </c>
+      <c r="P52" t="n">
+        <v>14065</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2735,6 +3209,15 @@
       <c r="M53" t="n">
         <v>0</v>
       </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2778,6 +3261,15 @@
       <c r="M54" t="n">
         <v>0</v>
       </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2821,6 +3313,15 @@
       <c r="M55" t="n">
         <v>0</v>
       </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2862,6 +3363,15 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2883,6 +3393,9 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2902,6 +3415,9 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2943,6 +3459,15 @@
       <c r="M59" t="n">
         <v>15468</v>
       </c>
+      <c r="N59" t="n">
+        <v>14424</v>
+      </c>
+      <c r="O59" t="n">
+        <v>16684</v>
+      </c>
+      <c r="P59" t="n">
+        <v>15742</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2984,6 +3509,15 @@
       <c r="M60" t="n">
         <v>-1151</v>
       </c>
+      <c r="N60" t="n">
+        <v>-2893</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-2499</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-2463</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3025,6 +3559,15 @@
       <c r="M61" t="n">
         <v>14317</v>
       </c>
+      <c r="N61" t="n">
+        <v>11531</v>
+      </c>
+      <c r="O61" t="n">
+        <v>14185</v>
+      </c>
+      <c r="P61" t="n">
+        <v>13279</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3066,6 +3609,15 @@
       <c r="M62" t="n">
         <v>-6896</v>
       </c>
+      <c r="N62" t="n">
+        <v>-6665</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-7183</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-5720</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3107,6 +3659,15 @@
       <c r="M63" t="n">
         <v>-10701</v>
       </c>
+      <c r="N63" t="n">
+        <v>-6788</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-13220</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-13162</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3148,6 +3709,15 @@
       <c r="M64" t="n">
         <v>0</v>
       </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3187,6 +3757,15 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3230,6 +3809,15 @@
       <c r="M66" t="n">
         <v>-134</v>
       </c>
+      <c r="N66" t="n">
+        <v>-7903</v>
+      </c>
+      <c r="O66" t="n">
+        <v>5</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-51</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3269,6 +3857,15 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3312,6 +3909,15 @@
       <c r="M68" t="n">
         <v>9345</v>
       </c>
+      <c r="N68" t="n">
+        <v>8048</v>
+      </c>
+      <c r="O68" t="n">
+        <v>9613</v>
+      </c>
+      <c r="P68" t="n">
+        <v>12877</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3353,6 +3959,15 @@
       <c r="M69" t="n">
         <v>9372</v>
       </c>
+      <c r="N69" t="n">
+        <v>8169</v>
+      </c>
+      <c r="O69" t="n">
+        <v>9714</v>
+      </c>
+      <c r="P69" t="n">
+        <v>12943</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3393,6 +4008,15 @@
       </c>
       <c r="M70" t="n">
         <v>-27</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-121</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-101</v>
+      </c>
+      <c r="P70" t="n">
+        <v>-66</v>
       </c>
     </row>
     <row r="71">
@@ -3413,6 +4037,9 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3432,6 +4059,9 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3451,6 +4081,9 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3492,6 +4125,15 @@
       <c r="M74" t="n">
         <v>5931</v>
       </c>
+      <c r="N74" t="n">
+        <v>-1777</v>
+      </c>
+      <c r="O74" t="n">
+        <v>3400</v>
+      </c>
+      <c r="P74" t="n">
+        <v>7223</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3533,6 +4175,15 @@
       <c r="M75" t="n">
         <v>0</v>
       </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3572,6 +4223,15 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3593,6 +4253,9 @@
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3612,6 +4275,9 @@
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3637,6 +4303,13 @@
       <c r="M79" t="n">
         <v>0</v>
       </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3677,6 +4350,15 @@
       </c>
       <c r="M80" t="n">
         <v>4244</v>
+      </c>
+      <c r="N80" t="n">
+        <v>27</v>
+      </c>
+      <c r="O80" t="n">
+        <v>2907</v>
+      </c>
+      <c r="P80" t="n">
+        <v>6551</v>
       </c>
     </row>
   </sheetData>
